--- a/src/test/resources/xls/testdata.xlsx
+++ b/src/test/resources/xls/testdata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="numbers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -34,28 +35,28 @@
     <t>GSMA0003</t>
   </si>
   <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>033</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
     <t>home</t>
+  </si>
+  <si>
+    <t>mn1</t>
+  </si>
+  <si>
+    <t>mn2</t>
+  </si>
+  <si>
+    <t>mn3</t>
+  </si>
+  <si>
+    <t>hn1</t>
+  </si>
+  <si>
+    <t>hn2</t>
+  </si>
+  <si>
+    <t>hn3</t>
   </si>
 </sst>
 </file>
@@ -415,7 +416,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -450,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -468,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -486,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
